--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1489316.066233514</v>
+        <v>1486980.955031533</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>298.9400423067793</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>225.0132269816494</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>73.6328692249635</v>
+        <v>127.0452051587486</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>213.2066220932634</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>114.4670905662827</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>127.2905580017499</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>187.571045029101</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>188.6059442291525</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>85.87308903366298</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>37.59617708813221</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>278.7019488598311</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>12.74007641194018</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605712342</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323832</v>
       </c>
       <c r="W22" t="n">
-        <v>23.41986852521065</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>36.2249434387023</v>
+        <v>285.9611605607051</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>244.8868067888989</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229301</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>174.7683347992608</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.188673966789</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114.902695549579</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C2" t="n">
-        <v>745.9401786091673</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D2" t="n">
-        <v>745.9401786091673</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>360.1519260109231</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>353.2064252617196</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2001.608391672198</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1670.545504328627</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1317.776849058513</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>944.3110907974335</v>
       </c>
     </row>
     <row r="3">
@@ -4395,13 +4395,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.543024838023</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>825.137147448514</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="C4" t="n">
-        <v>825.137147448514</v>
+        <v>624.4949571199844</v>
       </c>
       <c r="D4" t="n">
-        <v>675.0205080361783</v>
+        <v>474.3783177076486</v>
       </c>
       <c r="E4" t="n">
-        <v>527.1074144537852</v>
+        <v>326.4652241252555</v>
       </c>
       <c r="F4" t="n">
-        <v>380.2174669558748</v>
+        <v>179.5752766273452</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V4" t="n">
-        <v>825.137147448514</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W4" t="n">
-        <v>825.137147448514</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="X4" t="n">
-        <v>825.137147448514</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="Y4" t="n">
-        <v>825.137147448514</v>
+        <v>793.4311400478913</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1802.273730074954</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C5" t="n">
-        <v>1433.311213134542</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D5" t="n">
-        <v>1075.045514527792</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>689.2572619295474</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>278.2713571399399</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>266.6070109046328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2322.016797122299</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="Y5" t="n">
-        <v>2188.873570139076</v>
+        <v>1990.953909778728</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4650,22 +4650,22 @@
         <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.253210781439</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.9860105762135</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C7" t="n">
-        <v>346.0498276483066</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1507.869798860609</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1507.869798860609</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1507.869798860609</v>
+        <v>1121.418530735218</v>
       </c>
       <c r="V7" t="n">
-        <v>1253.185310654722</v>
+        <v>1121.418530735218</v>
       </c>
       <c r="W7" t="n">
-        <v>963.768140617761</v>
+        <v>1121.418530735218</v>
       </c>
       <c r="X7" t="n">
-        <v>735.7785897197436</v>
+        <v>1121.418530735218</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.9860105762135</v>
+        <v>1121.418530735218</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1151.298377994912</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C8" t="n">
-        <v>782.3358610545008</v>
+        <v>1827.135477358711</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>672.0956213641086</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>257.0231712091051</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3238.865327635775</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3238.865327635775</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2985.334850909611</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2654.27196356604</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2301.503308295926</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>1928.037550034846</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y8" t="n">
-        <v>1537.898218059034</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.3439163053883</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>549.4077333774815</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>399.2910939651457</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>251.3780003827526</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>104.4880528848422</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1638.191681214136</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.774511177176</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1120.784960279158</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>899.9923811356281</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5270,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5540,7 +5540,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T19" t="n">
-        <v>2395.078540748843</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270404</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W22" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y22" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1730.100669612631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1475.416181406744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.999011369783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263525</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356184</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232826</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408895</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135312</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237295</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7561,7 +7561,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.261780432</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878353</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013359</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>129.4330134067482</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>129.751134705686</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>7.821049476759924</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>133.693886234629</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>30.48882721876579</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405115</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>263.1031298113804</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>250.2980548978887</v>
+        <v>0.5618377758858628</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>41.29766760034522</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25597,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>111.7546635373302</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.6433062151483</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="G2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,34 +26418,34 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756577</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
@@ -26457,7 +26457,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-831264.7235426897</v>
       </c>
       <c r="C6" t="n">
-        <v>283487.0600332298</v>
+        <v>283487.0600332296</v>
       </c>
       <c r="D6" t="n">
-        <v>124065.7900353379</v>
+        <v>124065.790035338</v>
       </c>
       <c r="E6" t="n">
-        <v>68594.43281823501</v>
+        <v>68559.69489279913</v>
       </c>
       <c r="F6" t="n">
-        <v>394006.8946255901</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="G6" t="n">
-        <v>394006.8946255901</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="H6" t="n">
-        <v>394006.8946255902</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="I6" t="n">
-        <v>394006.8946255901</v>
+        <v>393972.1567001543</v>
       </c>
       <c r="J6" t="n">
-        <v>226401.7168156076</v>
+        <v>226366.9788901716</v>
       </c>
       <c r="K6" t="n">
-        <v>394006.89462559</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="L6" t="n">
-        <v>345712.9246173993</v>
+        <v>345678.1866919636</v>
       </c>
       <c r="M6" t="n">
-        <v>308951.8666900785</v>
+        <v>308917.1287646424</v>
       </c>
       <c r="N6" t="n">
-        <v>394006.8946255901</v>
+        <v>393972.1567001543</v>
       </c>
       <c r="O6" t="n">
-        <v>394006.89462559</v>
+        <v>393972.1567001543</v>
       </c>
       <c r="P6" t="n">
-        <v>394006.89462559</v>
+        <v>393972.1567001543</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>112.6076604661747</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>26.03202314681266</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>92.67373081984069</v>
+        <v>39.26139488605554</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>87.81193046914197</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>136.5781595621793</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>67.37190235998753</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>98.6561090920996</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>106.001820158168</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>23.31467275451286</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>128.429631170896</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313201</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321904</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>496.3643456887887</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>520.9482342985599</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
